--- a/clientes_invalidos.xlsx
+++ b/clientes_invalidos.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78028-505</t>
+          <t>78028505</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>69041-380</t>
+          <t>69041380</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40081-320</t>
+          <t>40081320</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09134-690</t>
+          <t>09134690</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>41345-240</t>
+          <t>41345240</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>71591-350</t>
+          <t>71591350</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74993-530</t>
+          <t>74993530</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>08265-070</t>
+          <t>08265070</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>45607-148</t>
+          <t>45607148</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
